--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/20/seed1/result_data_KNN.xlsx
@@ -499,10 +499,10 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.835999999999999</v>
+        <v>5.734999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.906</v>
+        <v>-12.74</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.906</v>
+        <v>-12.927</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,10 +533,10 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>6.664</v>
+        <v>6.164</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.546</v>
+        <v>-12.284</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.31</v>
+        <v>6.638</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.064000000000001</v>
+        <v>5.323</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.884</v>
+        <v>-12.597</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>5.292000000000001</v>
+        <v>5.322</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.488</v>
+        <v>-12.597</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.353999999999999</v>
+        <v>5.766999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.337999999999999</v>
+        <v>6.247</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.836</v>
+        <v>-12.78</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
